--- a/paper statistics/status.xlsx
+++ b/paper statistics/status.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>sigmod12</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>segmentation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>forecasting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,22 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motif discovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clustering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stream join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indexing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,111 +54,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6][7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vldb12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vldb11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vldb10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigkdd12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigkdd11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigkdd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13][14][16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12][15][17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity &amp; query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21][22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20][23][24][25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summarization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[26][28]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[29]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[33]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30][34][36]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41][42][43]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6][7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vldb12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vldb11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vldb10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigkdd12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigkdd11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigkdd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13][14][16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12][15][17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[18]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>similarity &amp; query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[19]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[21][22]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[20][23][24][25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summarization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[27]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[26][28]</t>
+    <t>[46]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[47]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[44][45][48]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icde12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[49]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[51]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[52]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icde11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[55]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[56][57][58]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[53][54][59]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icde10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[62]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[63]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[64][65]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,15 +338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>152396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -259,8 +355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="3238499"/>
-          <a:ext cx="13887450" cy="5095876"/>
+          <a:off x="200025" y="3238496"/>
+          <a:ext cx="10344150" cy="19126204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,6 +787,842 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>[28]Botan I, Derakhshan R, Dindar N, et al. Secret: A model for analysis of the execution semantics of stream processing systems[J]. Proceedings of the VLDB Endowment, 2010, 3(1-2): 232-243.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[29]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lines J, Davis L M, Hills J, et al. A shapelet transform for time series classification[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 289-297.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[30]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tang L, Li T, Shwartz L. Discovering lag intervals for temporal dependencies[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 633-641.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[31]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kuksa P P, Pavlovic V. Efficient evaluation of large sequence kernels[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 759-767.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[32]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Matsubara Y, Sakurai Y, Faloutsos C, et al. Fast mining and forecasting of complex time-stamped events[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 271-279.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[33]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Batal I, Fradkin D, Harrison J, et al. Mining recent temporal patterns for event detection in multivariate time series data[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 280-288.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[34]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Speiser M, Antonini G, Labbi A, et al. On nested palindromes in clickstream data[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 1460-1468.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[35]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rakthanmanon T, Campana B, Mueen A, et al. Searching and mining trillions of time series subsequences under dynamic time warping[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 262-270.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[36]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Stanton I, Kliot G. Streaming graph partitioning for large distributed graphs[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 1222-1230.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[40]Wang F, Lee N, Hu J, et al. Towards heterogeneous temporal clinical event pattern discovery: a convolutional approach[C]//Proceedings of the 18th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2012: 453-461.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[41]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zhang P, Li J, Wang P, et al. Enabling fast prediction for ensemble models on data streams[C]//Proceedings of the 17th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2011: 177-185.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[42]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Attenberg J, Provost F. Online active inference and learning[C]//Proceedings of the 17th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2011: 186-194.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[43]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chu W, Zinkevich M, Li L, et al. Unbiased online active learning in data streams[C]//Proceedings of the 17th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2011: 195-203.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[44]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kumar M, Ghani R, Mei Z S. Data mining to predict and prevent errors in health insurance claims processing[C]//Proceedings of the 16th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2010: 65-74.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[45]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cao L, Ou Y, Yu P S, et al. Detecting abnormal coupled sequences and sequence changes in group-based manipulative trading behaviors[C]//Proceedings of the 16th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2010: 85-94.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[46]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thanh Lam H, Calders T. Mining top-k frequent items in a data stream with flexible sliding windows[C]//Proceedings of the 16th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2010: 283-292.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[47]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sarangi S R, Murthy K. DUST: a generalized notion of similarity between uncertain time series[C]//Proceedings of the 16th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2010: 383-392.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[48]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>He D, Parker D S. Topic dynamics: an alternative model of bursts in streams of topics[C]//Proceedings of the 16th ACM SIGKDD international conference on Knowledge discovery and data mining. ACM, 2010: 443-452.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[49]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chandramouli B, Maier D, Goldstein J. Physically Independent Stream Merging[C]//Data Engineering (ICDE), 2012 IEEE 28th International Conference on. IEEE, 2012: 150-161.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[50]Tang L A, Zheng Y, Yuan J, et al. On discovery of traveling companions from streaming trajectories[C]//Data Engineering (ICDE), 2012 IEEE 28th International Conference on. IEEE, 2012: 186-197.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[51]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Peng Y, Wong R C, Ye L, et al. Attribute-Based Subsequence Matching and Mining[C]//Data Engineering (ICDE), 2012 IEEE 28th International Conference on. IEEE, 2012: 989-1000.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[52]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wu W C H, Yeh M Y, Pei J. Random Error Reduction in Similarity Search on Time Series: A Statistical Approach[C]//Data Engineering (ICDE), 2012 IEEE 28th International Conference on. IEEE, 2012: 858-869.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[53]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ding L, Works K, Rundensteiner E A. Semantic stream query optimization exploiting dynamic metadata[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 111-122.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[54]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Liu M, Rundensteiner E, Dougherty D, et al. High-performance nested CEP query processing over event streams[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 123-134.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[55]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kontaki M, Gounaris A, Papadopoulos A N, et al. Continuous monitoring of distance-based outliers over data streams[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 135-146.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[56]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sathe S, Jeung H, Aberer K. Creating probabilistic databases from imprecise time-series data[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 327-338.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[57]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aggarwal C C, Zhao Y, Yu P S. Outlier detection in graph streams[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 399-409.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[58]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thakkar H, Laptev N, Mousavi H, et al. SMM: a data stream management system for knowledge discovery[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 757-768.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[59]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kalyvianaki E, Wiesemann W, Vu Q H, et al. SQPR: Stream query planning with reuse[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 840-851.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[60]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Naidu K V M, Rastogi R, Satkin S, et al. Memory-constrained aggregate computation over data streams[C]//Data Engineering (ICDE), 2011 IEEE 27th International Conference on. IEEE, 2011: 852-863.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[61]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Yan Y, Zhang J, Shan M C. Scheduling for fast response multi-pattern matching over streaming events[C]//Data Engineering (ICDE), 2010 IEEE 26th International Conference on. IEEE, 2010: 89-100.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[62]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mozafari B, Zaniolo C. Optimal load shedding with aggregates and mining queries[C]//Data Engineering (ICDE), 2010 IEEE 26th International Conference on. IEEE, 2010: 76-88.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[63]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zhao H, Lall A, Ogihara M, et al. Global iceberg detection over distributed data streams[C]//Data Engineering (ICDE), 2010 IEEE 26th International Conference on. IEEE, 2010: 557-568.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[64]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Floratou A, Tata S, Patel J M. Efficient and Accurate Discovery of Patterns in Sequence Data Sets[J]. Knowledge and Data Engineering, IEEE Transactions on, 2011, 23(8): 1154-1168.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[65]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sheng C, Hsu W, Lee M L, et al. Mining mutation chains in biological sequences[C]//Data Engineering (ICDE), 2010 IEEE 26th International Conference on. IEEE, 2010: 473-484.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -988,29 +1920,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1018,210 +1947,357 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>28</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <f>SUM(L2:L13)</f>
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
